--- a/data/sds/text_book_data.xlsx
+++ b/data/sds/text_book_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PostGraduate\Code\ECNU\sqleval\data\sds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA1FD8-C8D6-4FE2-893E-77EB5AD2FF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086B4571-64E4-4AD6-A20B-AE1A9EC92056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>将所有在'Smith'楼101房间上课的课程的教师更改为'David Brown'。</t>
   </si>
@@ -743,6 +743,156 @@
   </si>
   <si>
     <t>删除所有没有先决条件的课程记录。</t>
+  </si>
+  <si>
+    <t>插入每个没有导师的音乐系学生与'Music'系主任的导师关系。</t>
+  </si>
+  <si>
+    <t>INSERT INTO advisor (s_ID, i_ID) SELECT student.ID, instructor.ID FROM student, instructor WHERE student.dept_name = 'Music' AND instructor.dept_name = 'Music' AND student.ID NOT IN (SELECT s_ID FROM advisor);</t>
+  </si>
+  <si>
+    <t>将预算大于500,000美元的所有系的课程作为先决条件插入到新课程'CS-999'中。</t>
+  </si>
+  <si>
+    <t>INSERT INTO prereq (course_id, prereq_id) SELECT 'CS-999', course.course_id FROM course, department WHERE course.dept_name = department.dept_name AND department.budget &gt; 500000;</t>
+  </si>
+  <si>
+    <t>将所有在'North'大楼上课的课程分区插入到2024年春季学期的新教室'Main'楼301房间中。</t>
+  </si>
+  <si>
+    <t>INSERT INTO section (course_id, sec_id, semester, year, building, room_number, time_slot_id) SELECT course_id, sec_id, 'Spring', 2024, 'Main', '301', time_slot_id FROM section WHERE building = 'North';</t>
+  </si>
+  <si>
+    <t>为所有没有选修任何课程且总学分超过120分的学生创建导师记录，导师为他们系里的教师中薪资最高的教师。</t>
+  </si>
+  <si>
+    <t>INSERT INTO advisor (s_ID, i_ID) SELECT student.ID, instructor.ID FROM student, instructor WHERE student.dept_name = instructor.dept_name AND student.tot_cred &gt; 120 AND student.ID NOT IN (SELECT s_ID FROM takes) ORDER BY instructor.salary DESC LIMIT 1;</t>
+  </si>
+  <si>
+    <t>插入所有未获得成绩的'CS-101'学生到新的'CS-102'课程中，并将成绩设为NULL。</t>
+  </si>
+  <si>
+    <t>INSERT INTO takes (ID, course_id, sec_id, semester, year, grade) SELECT ID, 'CS-102', '1', 'Spring', 2024, NULL FROM takes WHERE course_id = 'CS-101' AND grade IS NULL;</t>
+  </si>
+  <si>
+    <t>将所有'CS-437'课程的先决条件课程插入到'CS-500'课程的先决条件中。</t>
+  </si>
+  <si>
+    <t>INSERT INTO prereq (course_id, prereq_id) SELECT 'CS-500', prereq_id FROM prereq WHERE course_id = 'CS-437';</t>
+  </si>
+  <si>
+    <t>为所有音乐系没有修满144学分的学生创建新课程注册记录，课程为'Music Theory'，学分设为3，成绩为空。</t>
+  </si>
+  <si>
+    <t>INSERT INTO takes (ID, course_id, sec_id, semester, year, grade) SELECT ID, 'MUS-201', '1', 'Spring', 2024, NULL FROM student WHERE dept_name = 'Music' AND tot_cred &lt; 144;</t>
+  </si>
+  <si>
+    <t>INSERT INTO takes (ID, course_id, sec_id, semester, year) SELECT ID, 'CS-201', '1', 'Spring', 2024 FROM takes WHERE course_id = 'CS-101' AND year = 2023 AND grade IN ('A', 'B');</t>
+  </si>
+  <si>
+    <t>将所有2023年在'CS-101'课程获得B及以上成绩的学生插入到2024年春季学期的高级课程中。</t>
+  </si>
+  <si>
+    <t>将所有教授'CS-101'的教师插入为'CS-201'课程的教师，且保持相同的分区编号。</t>
+  </si>
+  <si>
+    <t>INSERT INTO teaches (ID, course_id, sec_id, semester, year) SELECT ID, 'CS-201', sec_id, semester, year FROM teaches WHERE course_id = 'CS-101';</t>
+  </si>
+  <si>
+    <t>为所有2023年在'Spring'学期中教授课程的教师，插入一个他们2024年将在同一时间段教授相同课程的记录。</t>
+  </si>
+  <si>
+    <t>INSERT INTO teaches (ID, course_id, sec_id, semester, year) SELECT ID, course_id, sec_id, 'Spring', 2024 FROM teaches WHERE year = 2023 AND semester = 'Spring';</t>
+  </si>
+  <si>
+    <t>将所有系预算大于200,000美元且没有教室的课程插入到'Watson'大楼的教室中。</t>
+  </si>
+  <si>
+    <t>INSERT INTO section (course_id, sec_id, semester, year, building, room_number, time_slot_id) SELECT course_id, sec_id, 'Spring', 2024, 'Watson', '101', 'A1' FROM section WHERE building IS NULL AND course_id IN (SELECT course_id FROM course WHERE dept_name IN (SELECT dept_name FROM department WHERE budget &gt; 200000));</t>
+  </si>
+  <si>
+    <t>插入所有'CS-500'课程的学生为'CS-501'课程的学生，成绩设置为空。</t>
+  </si>
+  <si>
+    <t>INSERT INTO takes (ID, course_id, sec_id, semester, year, grade) SELECT ID, 'CS-501', sec_id, 'Spring', 2024, NULL FROM takes WHERE course_id = 'CS-500';</t>
+  </si>
+  <si>
+    <t>查询2023年秋季学期所有课程的教师姓名、课程名称和所在教室的容量。</t>
+  </si>
+  <si>
+    <t>查询所有薪资高于教师平均工资的教师姓名和他们教授的课程数。</t>
+  </si>
+  <si>
+    <t>查询所有在'Watson'大楼上课的系中，课程学分总和大于10的系名和课程总数。</t>
+  </si>
+  <si>
+    <t>查询每个系薪资最高的教师姓名、其所属系名以及薪资。</t>
+  </si>
+  <si>
+    <t>查询所有学生的姓名、导师姓名以及他们所修学分大于120的课程名称。</t>
+  </si>
+  <si>
+    <t>查询所有2024年春季学期教授课程的教师，按他们教授的课程数量进行排序。</t>
+  </si>
+  <si>
+    <t>查询所有开设了先决条件课程的课程名称以及其先决条件课程的名称。</t>
+  </si>
+  <si>
+    <t>查询所有从未选修过课程的学生姓名。</t>
+  </si>
+  <si>
+    <t>查询每个学期学生选修最多的课程名称和学期。</t>
+  </si>
+  <si>
+    <t>查询所有2023年秋季学期同时教授多个课程的教师姓名以及他们的课程ID。</t>
+  </si>
+  <si>
+    <t>查询每个系总课程数大于5且教师平均薪资超过60,000美元的系名及其课程数。</t>
+  </si>
+  <si>
+    <t>查询每个学期的每个课程中获得'A'的学生人数，并按学期和课程排序。</t>
+  </si>
+  <si>
+    <t>查询所有2023年秋季学期在'Watson'大楼上课但没有指定教室的课程分区的课程ID和分区ID。</t>
+  </si>
+  <si>
+    <t>SELECT instructor.name, course.title, classroom.capacity FROM teaches JOIN instructor ON teaches.ID = instructor.ID JOIN course ON teaches.course_id = course.course_id JOIN section ON teaches.course_id = section.course_id AND teaches.sec_id = section.sec_id JOIN classroom ON section.building = classroom.building AND section.room_number = classroom.room_number WHERE section.semester = 'Fall' AND section.year = 2023;</t>
+  </si>
+  <si>
+    <t>SELECT instructor.name, COUNT(teaches.course_id) AS course_count FROM instructor JOIN teaches ON instructor.ID = teaches.ID WHERE instructor.salary &gt; (SELECT AVG(salary) FROM instructor) GROUP BY instructor.name;</t>
+  </si>
+  <si>
+    <t>SELECT department.dept_name, COUNT(course.course_id) AS total_courses FROM department JOIN course ON department.dept_name = course.dept_name JOIN section ON course.course_id = section.course_id WHERE section.building = 'Watson' GROUP BY department.dept_name HAVING SUM(course.credits) &gt; 10;</t>
+  </si>
+  <si>
+    <t>SELECT instructor.name, instructor.dept_name, instructor.salary FROM instructor WHERE salary = (SELECT MAX(salary) FROM instructor AS i WHERE i.dept_name = instructor.dept_name);</t>
+  </si>
+  <si>
+    <t>SELECT student.name AS student_name, instructor.name AS advisor_name, course.title AS course_title FROM student JOIN advisor ON student.ID = advisor.s_ID JOIN instructor ON advisor.i_ID = instructor.ID JOIN takes ON student.ID = takes.ID JOIN course ON takes.course_id = course.course_id WHERE student.tot_cred &gt; 120;</t>
+  </si>
+  <si>
+    <t>SELECT instructor.name, COUNT(teaches.course_id) AS num_courses FROM instructor JOIN teaches ON instructor.ID = teaches.ID WHERE teaches.year = 2024 AND teaches.semester = 'Spring' GROUP BY instructor.name ORDER BY num_courses DESC;</t>
+  </si>
+  <si>
+    <t>SELECT course.title AS course_title, prereq_course.title AS prereq_title FROM prereq JOIN course ON prereq.course_id = course.course_id JOIN course AS prereq_course ON prereq.prereq_id = prereq_course.course_id;</t>
+  </si>
+  <si>
+    <t>SELECT student.name FROM student WHERE student.ID NOT IN (SELECT ID FROM takes);</t>
+  </si>
+  <si>
+    <t>SELECT takes.semester, takes.year, course.title, COUNT(takes.ID) AS num_students FROM takes JOIN course ON takes.course_id = course.course_id GROUP BY takes.semester, takes.year, course.title ORDER BY num_students DESC LIMIT 1;</t>
+  </si>
+  <si>
+    <t>SELECT instructor.name, teaches.course_id FROM teaches JOIN instructor ON teaches.ID = instructor.ID WHERE teaches.year = 2023 AND teaches.semester = 'Fall' GROUP BY instructor.name, teaches.course_id HAVING COUNT(teaches.course_id) &gt; 1;</t>
+  </si>
+  <si>
+    <t>SELECT department.dept_name, COUNT(course.course_id) AS total_courses FROM department JOIN course ON department.dept_name = course.dept_name JOIN instructor ON department.dept_name = instructor.dept_name GROUP BY department.dept_name HAVING COUNT(course.course_id) &gt; 5 AND AVG(instructor.salary) &gt; 60000;</t>
+  </si>
+  <si>
+    <t>SELECT takes.semester, takes.year, course.title, COUNT(takes.ID) AS num_A_students FROM takes JOIN course ON takes.course_id = course.course_id WHERE takes.grade = 'A' GROUP BY takes.semester, takes.year, course.title ORDER BY takes.semester, takes.year, course.title;</t>
+  </si>
+  <si>
+    <t>SELECT section.course_id, section.sec_id FROM section WHERE section.semester = 'Fall' AND section.year = 2023 AND section.building = 'Watson' AND (section.room_number IS NULL OR section.room_number = '');</t>
   </si>
 </sst>
 </file>
@@ -798,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -806,6 +956,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1086,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1298,6 +1450,206 @@
         <v>48</v>
       </c>
     </row>
+    <row r="28" spans="1:2" ht="18">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
